--- a/ResultadoEleicoesDistritos/FARO_LOULÉ.xlsx
+++ b/ResultadoEleicoesDistritos/FARO_LOULÉ.xlsx
@@ -597,64 +597,64 @@
         <v>18267</v>
       </c>
       <c r="H2" t="n">
-        <v>646</v>
+        <v>702</v>
       </c>
       <c r="I2" t="n">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J2" t="n">
-        <v>7533</v>
+        <v>7534</v>
       </c>
       <c r="K2" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="L2" t="n">
-        <v>2068</v>
+        <v>2125</v>
       </c>
       <c r="M2" t="n">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="N2" t="n">
-        <v>1395</v>
+        <v>1300</v>
       </c>
       <c r="O2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P2" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Q2" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R2" t="n">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="S2" t="n">
-        <v>841</v>
+        <v>815</v>
       </c>
       <c r="T2" t="n">
-        <v>1337</v>
+        <v>1371</v>
       </c>
       <c r="U2" t="n">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="V2" t="n">
-        <v>11777</v>
+        <v>11633</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X2" t="n">
-        <v>11554</v>
+        <v>11635</v>
       </c>
       <c r="Y2" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="Z2" t="n">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="AA2" t="n">
-        <v>63</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
